--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_4_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1535822.188402069</v>
+        <v>1534127.330168176</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1287228.184107716</v>
+        <v>1287228.184107717</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673416</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>214.0077506398264</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -704,19 +704,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>50.29171516770226</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>87.11878864677688</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>224.1670833407776</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>130.4655268502615</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>36.21593518981624</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>55.71194092525318</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,22 +978,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>115.9516357362649</v>
       </c>
       <c r="H6" t="n">
-        <v>19.11693593113059</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5810588664028</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,16 +1212,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.96662155595598</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>83.03189205754168</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.779571414954</v>
+        <v>357.7795714149542</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>329.7287713721564</v>
+        <v>329.7287713721566</v>
       </c>
       <c r="E11" t="n">
-        <v>356.9760998237352</v>
+        <v>356.9760998237354</v>
       </c>
       <c r="F11" t="n">
-        <v>381.9217754931849</v>
+        <v>381.9217754931851</v>
       </c>
       <c r="G11" t="n">
-        <v>387.996624731278</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>85.35621409412809</v>
+        <v>290.4347245022873</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>94.85220997855046</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.4731875638751</v>
+        <v>130.4731875638752</v>
       </c>
       <c r="T11" t="n">
-        <v>187.8463886171956</v>
+        <v>187.8463886171957</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>226.2032352564837</v>
       </c>
       <c r="V11" t="n">
-        <v>302.7979882216084</v>
+        <v>164.6606573096923</v>
       </c>
       <c r="W11" t="n">
-        <v>324.2866984688865</v>
+        <v>324.2866984688866</v>
       </c>
       <c r="X11" t="n">
-        <v>344.7768304299425</v>
+        <v>344.7768304299427</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.283668407527</v>
+        <v>361.2836684075272</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.8777099334108</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>142.2925508501014</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>141.9817535136539</v>
+        <v>141.981753513654</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77081274701487</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>104.9044813177992</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>180.67732889694</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>198.4837816320202</v>
       </c>
       <c r="U13" t="n">
-        <v>75.4255935303737</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>227.1833730753015</v>
+        <v>184.343072640361</v>
       </c>
       <c r="W13" t="n">
-        <v>261.5687280880645</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>200.7553851405108</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.6303831035683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>357.779571414954</v>
+        <v>267.1423255170752</v>
       </c>
       <c r="C14" t="n">
-        <v>340.318621522481</v>
+        <v>340.3186215224812</v>
       </c>
       <c r="D14" t="n">
-        <v>329.7287713721564</v>
+        <v>329.7287713721566</v>
       </c>
       <c r="E14" t="n">
-        <v>356.9760998237352</v>
+        <v>356.9760998237354</v>
       </c>
       <c r="F14" t="n">
-        <v>328.2814995339479</v>
+        <v>381.9217754931851</v>
       </c>
       <c r="G14" t="n">
-        <v>387.996624731278</v>
+        <v>387.9966247312782</v>
       </c>
       <c r="H14" t="n">
-        <v>290.4347245022872</v>
+        <v>290.4347245022873</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>187.8463886171956</v>
+        <v>187.8463886171957</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>302.7979882216084</v>
+        <v>302.7979882216085</v>
       </c>
       <c r="W14" t="n">
-        <v>324.2866984688865</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>344.7768304299425</v>
+        <v>344.7768304299427</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>361.2836684075272</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I15" t="n">
-        <v>46.07197699567761</v>
+        <v>46.07197699567759</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.02995793686991</v>
+        <v>22.02995793686989</v>
       </c>
       <c r="S15" t="n">
         <v>148.3099331995005</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.8777099334108</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>142.2925508501014</v>
       </c>
       <c r="D16" t="n">
-        <v>123.6612027696858</v>
+        <v>123.661202769686</v>
       </c>
       <c r="E16" t="n">
-        <v>121.4796923980426</v>
+        <v>121.4796923980428</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>141.9817535136539</v>
+        <v>141.981753513654</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>127.8933879574564</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77081274701499</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>104.9044813177992</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>180.67732889694</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>217.0522271325153</v>
+        <v>111.7771435406916</v>
       </c>
       <c r="X16" t="n">
-        <v>200.7553851405106</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.6303831035683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C17" t="n">
-        <v>282.5551163781029</v>
+        <v>282.5551163781028</v>
       </c>
       <c r="D17" t="n">
         <v>271.9652662277782</v>
@@ -1853,16 +1853,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F17" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488066</v>
       </c>
       <c r="G17" t="n">
-        <v>330.2331195868999</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H17" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579089</v>
       </c>
       <c r="I17" t="n">
-        <v>37.08870483417215</v>
+        <v>37.08870483417209</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.70968241949689</v>
+        <v>72.70968241949681</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U17" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V17" t="n">
-        <v>245.0344830772302</v>
+        <v>245.0344830772301</v>
       </c>
       <c r="W17" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245082</v>
       </c>
       <c r="X17" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855642</v>
       </c>
       <c r="Y17" t="n">
-        <v>303.5201632631489</v>
+        <v>303.5201632631488</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I18" t="n">
-        <v>46.07197699567759</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.02995793686989</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S18" t="n">
         <v>148.3099331995005</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.11420478903258</v>
+        <v>97.11420478903251</v>
       </c>
       <c r="C19" t="n">
-        <v>84.52904570572312</v>
+        <v>84.52904570572305</v>
       </c>
       <c r="D19" t="n">
-        <v>65.89769762530764</v>
+        <v>65.89769762530757</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F19" t="n">
-        <v>62.70327263002653</v>
+        <v>62.70327263002646</v>
       </c>
       <c r="G19" t="n">
-        <v>84.21824836927567</v>
+        <v>84.2182483692756</v>
       </c>
       <c r="H19" t="n">
-        <v>4.478032230807031</v>
+        <v>70.12988281307797</v>
       </c>
       <c r="I19" t="n">
-        <v>41.00730760263667</v>
+        <v>41.0073076026366</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.14097617342085</v>
+        <v>47.14097617342078</v>
       </c>
       <c r="S19" t="n">
         <v>122.9138237525617</v>
@@ -2056,19 +2056,19 @@
         <v>140.7202764876419</v>
       </c>
       <c r="U19" t="n">
-        <v>203.5437109310619</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V19" t="n">
-        <v>169.4198679309233</v>
+        <v>40.05183009498863</v>
       </c>
       <c r="W19" t="n">
-        <v>203.8052229436863</v>
+        <v>203.8052229436862</v>
       </c>
       <c r="X19" t="n">
         <v>142.9918799961324</v>
       </c>
       <c r="Y19" t="n">
-        <v>135.8668779591901</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>232.671219357909</v>
       </c>
       <c r="I20" t="n">
-        <v>37.08870483417215</v>
+        <v>37.08870483417216</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.70968241949689</v>
+        <v>72.7096824194969</v>
       </c>
       <c r="T20" t="n">
         <v>130.0828834728174</v>
@@ -2178,7 +2178,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I21" t="n">
-        <v>46.07197699567759</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.02995793686989</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S21" t="n">
         <v>148.3099331995005</v>
@@ -2242,22 +2242,22 @@
         <v>84.52904570572312</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E22" t="n">
         <v>63.71618725366446</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G22" t="n">
         <v>84.21824836927567</v>
       </c>
       <c r="H22" t="n">
-        <v>70.12988281307804</v>
+        <v>70.12988281307805</v>
       </c>
       <c r="I22" t="n">
-        <v>41.00730760263667</v>
+        <v>41.00730760263668</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.14097617342085</v>
+        <v>47.14097617342086</v>
       </c>
       <c r="S22" t="n">
         <v>122.9138237525617</v>
@@ -2299,10 +2299,10 @@
         <v>169.4198679309233</v>
       </c>
       <c r="W22" t="n">
-        <v>203.8052229436863</v>
+        <v>74.43718510775096</v>
       </c>
       <c r="X22" t="n">
-        <v>142.2248124155305</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y22" t="n">
         <v>135.8668779591901</v>
@@ -2327,16 +2327,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F23" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488066</v>
       </c>
       <c r="G23" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H23" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579089</v>
       </c>
       <c r="I23" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417209</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949683</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U23" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V23" t="n">
-        <v>245.0344830772302</v>
+        <v>245.0344830772301</v>
       </c>
       <c r="W23" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245082</v>
       </c>
       <c r="X23" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855642</v>
       </c>
       <c r="Y23" t="n">
         <v>303.5201632631488</v>
@@ -2415,7 +2415,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I24" t="n">
-        <v>46.07197699567759</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.02995793686989</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S24" t="n">
         <v>148.3099331995005</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.46235420676332</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>84.52904570572308</v>
+        <v>52.27521265882192</v>
       </c>
       <c r="D25" t="n">
-        <v>65.8976976253076</v>
+        <v>65.89769762530757</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F25" t="n">
-        <v>62.70327263002649</v>
+        <v>62.70327263002646</v>
       </c>
       <c r="G25" t="n">
-        <v>84.21824836927563</v>
+        <v>84.2182483692756</v>
       </c>
       <c r="H25" t="n">
-        <v>70.12988281307801</v>
+        <v>70.12988281307798</v>
       </c>
       <c r="I25" t="n">
-        <v>41.00730760263663</v>
+        <v>41.00730760263661</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.14097617342081</v>
+        <v>47.14097617342079</v>
       </c>
       <c r="S25" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T25" t="n">
         <v>140.7202764876419</v>
       </c>
       <c r="U25" t="n">
-        <v>203.5437109310619</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V25" t="n">
-        <v>169.4198679309233</v>
+        <v>169.4198679309232</v>
       </c>
       <c r="W25" t="n">
-        <v>203.8052229436863</v>
+        <v>203.8052229436862</v>
       </c>
       <c r="X25" t="n">
         <v>142.9918799961324</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C26" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D26" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E26" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793571</v>
       </c>
       <c r="F26" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G26" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H26" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I26" t="n">
-        <v>37.08870483417208</v>
+        <v>37.08870483417218</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>72.70968241949681</v>
+        <v>72.70968241949691</v>
       </c>
       <c r="T26" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U26" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V26" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W26" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X26" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y26" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.46235420676396</v>
+        <v>97.1142047890326</v>
       </c>
       <c r="C28" t="n">
-        <v>84.52904570572304</v>
+        <v>84.52904570572314</v>
       </c>
       <c r="D28" t="n">
-        <v>65.89769762530756</v>
+        <v>65.89769762530766</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>63.71618725366447</v>
       </c>
       <c r="F28" t="n">
-        <v>62.70327263002645</v>
+        <v>62.70327263002655</v>
       </c>
       <c r="G28" t="n">
-        <v>84.21824836927559</v>
+        <v>84.21824836927568</v>
       </c>
       <c r="H28" t="n">
-        <v>70.12988281307797</v>
+        <v>63.67566872970456</v>
       </c>
       <c r="I28" t="n">
-        <v>41.00730760263659</v>
+        <v>41.00730760263669</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.14097617342077</v>
+        <v>47.14097617342087</v>
       </c>
       <c r="S28" t="n">
-        <v>122.9138237525616</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U28" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V28" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W28" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X28" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961325</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="29">
@@ -2801,16 +2801,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F29" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G29" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H29" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I29" t="n">
-        <v>37.08870483417208</v>
+        <v>37.08870483417212</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>72.70968241949681</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T29" t="n">
         <v>130.0828834728173</v>
@@ -2849,13 +2849,13 @@
         <v>168.4397301121053</v>
       </c>
       <c r="V29" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W29" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X29" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y29" t="n">
         <v>303.5201632631488</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C31" t="n">
-        <v>52.27521265882215</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D31" t="n">
-        <v>65.89769762530756</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E31" t="n">
-        <v>63.71618725366437</v>
+        <v>45.48533983344419</v>
       </c>
       <c r="F31" t="n">
-        <v>62.70327263002645</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G31" t="n">
-        <v>84.21824836927559</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H31" t="n">
-        <v>70.12988281307797</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.00730760263659</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.14097617342077</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S31" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T31" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U31" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V31" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W31" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X31" t="n">
         <v>142.9918799961324</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>72.70968241949686</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T32" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U32" t="n">
         <v>168.4397301121053</v>
@@ -3187,7 +3187,7 @@
         <v>97.11420478903254</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D34" t="n">
         <v>65.8976976253076</v>
@@ -3202,10 +3202,10 @@
         <v>84.21824836927563</v>
       </c>
       <c r="H34" t="n">
-        <v>70.12988281307801</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I34" t="n">
-        <v>41.00730760263664</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.14097617342082</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S34" t="n">
         <v>122.9138237525617</v>
@@ -3244,7 +3244,7 @@
         <v>203.5437109310619</v>
       </c>
       <c r="V34" t="n">
-        <v>169.4198679309233</v>
+        <v>40.0518300949889</v>
       </c>
       <c r="W34" t="n">
         <v>203.8052229436863</v>
@@ -3253,7 +3253,7 @@
         <v>142.9918799961324</v>
       </c>
       <c r="Y34" t="n">
-        <v>91.02788582897897</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.70968241949686</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T35" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U35" t="n">
         <v>168.4397301121053</v>
@@ -3430,19 +3430,19 @@
         <v>65.8976976253076</v>
       </c>
       <c r="E37" t="n">
-        <v>45.48533983344414</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F37" t="n">
         <v>62.70327263002649</v>
       </c>
       <c r="G37" t="n">
-        <v>84.21824836927563</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>24.98009334641956</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.14097617342082</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S37" t="n">
         <v>122.9138237525617</v>
@@ -3512,16 +3512,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F38" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G38" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H38" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I38" t="n">
-        <v>37.08870483417206</v>
+        <v>37.08870483417212</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.7096824194968</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T38" t="n">
         <v>130.0828834728173</v>
       </c>
       <c r="U38" t="n">
-        <v>168.4397301121052</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V38" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W38" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X38" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y38" t="n">
         <v>303.5201632631488</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.11420478903248</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C40" t="n">
-        <v>84.52904570572302</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D40" t="n">
-        <v>65.89769762530754</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E40" t="n">
-        <v>63.71618725366436</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F40" t="n">
-        <v>62.70327263002643</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G40" t="n">
-        <v>84.21824836927557</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I40" t="n">
-        <v>41.00730760263657</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.14097617342076</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S40" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T40" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U40" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V40" t="n">
-        <v>110.1817129080681</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W40" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X40" t="n">
-        <v>142.9918799961324</v>
+        <v>13.62384216019758</v>
       </c>
       <c r="Y40" t="n">
         <v>135.86687795919</v>
@@ -3749,16 +3749,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F41" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G41" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H41" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I41" t="n">
-        <v>37.08870483417206</v>
+        <v>37.08870483417212</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.7096824194968</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T41" t="n">
         <v>130.0828834728173</v>
       </c>
       <c r="U41" t="n">
-        <v>168.4397301121052</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V41" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W41" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X41" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y41" t="n">
         <v>303.5201632631488</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.11420478903248</v>
+        <v>93.28252026145694</v>
       </c>
       <c r="C43" t="n">
-        <v>84.52904570572302</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.89769762530754</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E43" t="n">
-        <v>63.71618725366436</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F43" t="n">
-        <v>62.70327263002643</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G43" t="n">
-        <v>84.21824836927557</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H43" t="n">
-        <v>70.12988281307796</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I43" t="n">
-        <v>41.00730760263658</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.14097617342076</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S43" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T43" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U43" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V43" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W43" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X43" t="n">
         <v>142.9918799961324</v>
       </c>
       <c r="Y43" t="n">
-        <v>6.498840123256983</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C44" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D44" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E44" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793571</v>
       </c>
       <c r="F44" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G44" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H44" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I44" t="n">
-        <v>37.08870483417206</v>
+        <v>37.08870483417219</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.7096824194968</v>
+        <v>72.70968241949693</v>
       </c>
       <c r="T44" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U44" t="n">
-        <v>168.4397301121052</v>
+        <v>168.4397301121054</v>
       </c>
       <c r="V44" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W44" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X44" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y44" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.11420478903248</v>
+        <v>97.11420478903261</v>
       </c>
       <c r="C46" t="n">
-        <v>58.87158810245314</v>
+        <v>84.52904570572315</v>
       </c>
       <c r="D46" t="n">
-        <v>65.89769762530754</v>
+        <v>0.2458470430350962</v>
       </c>
       <c r="E46" t="n">
-        <v>63.71618725366436</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>62.70327263002656</v>
       </c>
       <c r="G46" t="n">
-        <v>84.21824836927557</v>
+        <v>84.2182483692757</v>
       </c>
       <c r="H46" t="n">
-        <v>70.12988281307796</v>
+        <v>70.12988281307808</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.00730760263671</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.14097617342076</v>
+        <v>47.14097617342089</v>
       </c>
       <c r="S46" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T46" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U46" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V46" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W46" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X46" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961325</v>
       </c>
       <c r="Y46" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.516763498309</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E2" t="n">
-        <v>710.516763498309</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F2" t="n">
-        <v>703.5712627491056</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4352,28 +4352,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4416,43 +4416,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>876.0583790997505</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>876.0583790997505</v>
       </c>
       <c r="V3" t="n">
-        <v>454.3181732824481</v>
+        <v>876.0583790997505</v>
       </c>
       <c r="W3" t="n">
-        <v>227.8867759685313</v>
+        <v>876.0583790997505</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="4">
@@ -4519,13 +4519,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4595,22 +4595,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X5" t="n">
-        <v>315.6850394389064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>660.701031422288</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="C6" t="n">
-        <v>486.248002141161</v>
+        <v>373.9923272590225</v>
       </c>
       <c r="D6" t="n">
-        <v>337.3135924799097</v>
+        <v>373.9923272590225</v>
       </c>
       <c r="E6" t="n">
-        <v>178.0761374744542</v>
+        <v>373.9923272590225</v>
       </c>
       <c r="F6" t="n">
-        <v>178.0761374744542</v>
+        <v>227.4577692859075</v>
       </c>
       <c r="G6" t="n">
-        <v>39.34531205706975</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,19 +4647,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>660.701031422288</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y6" t="n">
-        <v>660.701031422288</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>467.067986854209</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C8" t="n">
-        <v>467.067986854209</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D8" t="n">
-        <v>467.067986854209</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4835,19 +4835,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V8" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W8" t="n">
         <v>710.516763498309</v>
       </c>
-      <c r="V8" t="n">
-        <v>710.516763498309</v>
-      </c>
-      <c r="W8" t="n">
-        <v>467.067986854209</v>
-      </c>
       <c r="X8" t="n">
-        <v>467.067986854209</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y8" t="n">
-        <v>467.067986854209</v>
+        <v>540.6514970160482</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.7341723913397</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4893,40 +4893,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>890.3534973733069</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>890.3534973733069</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>890.3534973733069</v>
       </c>
       <c r="U9" t="n">
-        <v>880.1865574727153</v>
+        <v>890.3534973733069</v>
       </c>
       <c r="V9" t="n">
-        <v>645.0344492409727</v>
+        <v>890.3534973733069</v>
       </c>
       <c r="W9" t="n">
-        <v>401.5856725968725</v>
+        <v>890.3534973733069</v>
       </c>
       <c r="X9" t="n">
-        <v>193.7341723913397</v>
+        <v>682.5019971677741</v>
       </c>
       <c r="Y9" t="n">
-        <v>193.7341723913397</v>
+        <v>474.7416984028202</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
         <v>41.77557929797318</v>
@@ -4981,31 +4981,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1630.761051512021</v>
+        <v>1541.805592578114</v>
       </c>
       <c r="C11" t="n">
-        <v>1630.761051512021</v>
+        <v>1541.805592578114</v>
       </c>
       <c r="D11" t="n">
-        <v>1297.701686489641</v>
+        <v>1208.746227555733</v>
       </c>
       <c r="E11" t="n">
-        <v>937.119767475767</v>
+        <v>848.1643085418592</v>
       </c>
       <c r="F11" t="n">
-        <v>551.3401962705298</v>
+        <v>462.3847373366218</v>
       </c>
       <c r="G11" t="n">
-        <v>159.4244137136827</v>
+        <v>462.3847373366218</v>
       </c>
       <c r="H11" t="n">
-        <v>73.20601563880587</v>
+        <v>169.0163287484527</v>
       </c>
       <c r="I11" t="n">
         <v>73.20601563880587</v>
@@ -5045,7 +5045,7 @@
         <v>658.1763815223501</v>
       </c>
       <c r="L11" t="n">
-        <v>1205.679240092235</v>
+        <v>1205.679240092234</v>
       </c>
       <c r="M11" t="n">
         <v>1831.488208231171</v>
@@ -5066,25 +5066,25 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S11" t="n">
-        <v>3528.509683390925</v>
+        <v>3528.509683390924</v>
       </c>
       <c r="T11" t="n">
-        <v>3338.765856504869</v>
+        <v>3338.765856504868</v>
       </c>
       <c r="U11" t="n">
-        <v>3338.765856504869</v>
+        <v>3110.277740084177</v>
       </c>
       <c r="V11" t="n">
-        <v>3032.909302745668</v>
+        <v>2943.953843811762</v>
       </c>
       <c r="W11" t="n">
-        <v>2705.346981059924</v>
+        <v>2616.391522126018</v>
       </c>
       <c r="X11" t="n">
-        <v>2357.087556383215</v>
+        <v>2268.132097449308</v>
       </c>
       <c r="Y11" t="n">
-        <v>1992.154557991773</v>
+        <v>1903.199099057866</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>73.20601563880587</v>
       </c>
       <c r="K12" t="n">
-        <v>137.906432594863</v>
+        <v>399.7270172373159</v>
       </c>
       <c r="L12" t="n">
-        <v>638.3586107252378</v>
+        <v>533.0472535172661</v>
       </c>
       <c r="M12" t="n">
-        <v>1274.34191943941</v>
+        <v>1169.030562231439</v>
       </c>
       <c r="N12" t="n">
-        <v>1942.864827295306</v>
+        <v>1837.553470087335</v>
       </c>
       <c r="O12" t="n">
-        <v>2098.093307097106</v>
+        <v>2382.705645973097</v>
       </c>
       <c r="P12" t="n">
-        <v>2518.62292203283</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q12" t="n">
         <v>2657.936419551312</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>316.3904260031178</v>
+        <v>360.3517776223972</v>
       </c>
       <c r="C13" t="n">
-        <v>316.3904260031178</v>
+        <v>216.6219282788604</v>
       </c>
       <c r="D13" t="n">
-        <v>316.3904260031178</v>
+        <v>216.6219282788604</v>
       </c>
       <c r="E13" t="n">
-        <v>316.3904260031178</v>
+        <v>216.6219282788604</v>
       </c>
       <c r="F13" t="n">
-        <v>316.3904260031178</v>
+        <v>216.6219282788604</v>
       </c>
       <c r="G13" t="n">
-        <v>172.9745133630634</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="H13" t="n">
-        <v>172.9745133630634</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I13" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J13" t="n">
-        <v>79.32466191965318</v>
+        <v>79.3246619196531</v>
       </c>
       <c r="K13" t="n">
-        <v>203.3235852420088</v>
+        <v>203.3235852420086</v>
       </c>
       <c r="L13" t="n">
-        <v>410.6171321895918</v>
+        <v>410.6171321895914</v>
       </c>
       <c r="M13" t="n">
-        <v>638.2252920475071</v>
+        <v>638.2252920475066</v>
       </c>
       <c r="N13" t="n">
-        <v>866.4434782183694</v>
+        <v>866.4434782183688</v>
       </c>
       <c r="O13" t="n">
-        <v>1063.109528897735</v>
+        <v>1063.109528897734</v>
       </c>
       <c r="P13" t="n">
-        <v>1211.436193392008</v>
+        <v>1211.436193392007</v>
       </c>
       <c r="Q13" t="n">
-        <v>1238.295262094753</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="R13" t="n">
-        <v>1238.295262094753</v>
+        <v>1132.33113955152</v>
       </c>
       <c r="S13" t="n">
-        <v>1238.295262094753</v>
+        <v>949.8287871303688</v>
       </c>
       <c r="T13" t="n">
-        <v>1238.295262094753</v>
+        <v>749.340118815197</v>
       </c>
       <c r="U13" t="n">
-        <v>1162.107793882254</v>
+        <v>749.340118815197</v>
       </c>
       <c r="V13" t="n">
-        <v>932.6296392607376</v>
+        <v>563.1349949360444</v>
       </c>
       <c r="W13" t="n">
-        <v>668.4188028081471</v>
+        <v>563.1349949360444</v>
       </c>
       <c r="X13" t="n">
-        <v>668.4188028081471</v>
+        <v>360.3517776223972</v>
       </c>
       <c r="Y13" t="n">
-        <v>472.8325572489872</v>
+        <v>360.3517776223972</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2127.485148452832</v>
+        <v>2181.667245381355</v>
       </c>
       <c r="C14" t="n">
-        <v>1783.72896509679</v>
+        <v>1837.911062025314</v>
       </c>
       <c r="D14" t="n">
-        <v>1450.66960007441</v>
+        <v>1504.851697002933</v>
       </c>
       <c r="E14" t="n">
-        <v>1090.087681060536</v>
+        <v>1144.269777989059</v>
       </c>
       <c r="F14" t="n">
-        <v>758.4902067838212</v>
+        <v>758.4902067838216</v>
       </c>
       <c r="G14" t="n">
-        <v>366.5744242269747</v>
+        <v>366.5744242269749</v>
       </c>
       <c r="H14" t="n">
         <v>73.20601563880587</v>
@@ -5279,7 +5279,7 @@
         <v>258.9898176069164</v>
       </c>
       <c r="K14" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223501</v>
       </c>
       <c r="L14" t="n">
         <v>1205.679240092235</v>
@@ -5312,16 +5312,16 @@
         <v>3470.556955054237</v>
       </c>
       <c r="V14" t="n">
-        <v>3164.700401295037</v>
+        <v>3164.700401295036</v>
       </c>
       <c r="W14" t="n">
-        <v>2837.138079609293</v>
+        <v>3164.700401295036</v>
       </c>
       <c r="X14" t="n">
-        <v>2488.878654932583</v>
+        <v>2816.440976618327</v>
       </c>
       <c r="Y14" t="n">
-        <v>2488.878654932583</v>
+        <v>2451.507978226885</v>
       </c>
     </row>
     <row r="15">
@@ -5343,10 +5343,10 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2965326142068</v>
+        <v>358.2965326142067</v>
       </c>
       <c r="G15" t="n">
-        <v>220.836764461843</v>
+        <v>220.8367644618429</v>
       </c>
       <c r="H15" t="n">
         <v>119.7433661394903</v>
@@ -5355,25 +5355,25 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J15" t="n">
-        <v>73.20601563880587</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K15" t="n">
-        <v>137.906432594863</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L15" t="n">
-        <v>638.3586107252377</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M15" t="n">
-        <v>813.29390632691</v>
+        <v>1653.120684104607</v>
       </c>
       <c r="N15" t="n">
-        <v>1481.816814182806</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O15" t="n">
-        <v>2026.968990068568</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P15" t="n">
-        <v>2447.498605004292</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.936419551312</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>464.2389941048489</v>
+        <v>836.9225815337105</v>
       </c>
       <c r="C16" t="n">
-        <v>464.2389941048489</v>
+        <v>693.1927321901737</v>
       </c>
       <c r="D16" t="n">
-        <v>339.3286882768834</v>
+        <v>568.2824263622081</v>
       </c>
       <c r="E16" t="n">
-        <v>216.6219282788605</v>
+        <v>445.5756663641851</v>
       </c>
       <c r="F16" t="n">
-        <v>216.6219282788605</v>
+        <v>445.5756663641851</v>
       </c>
       <c r="G16" t="n">
-        <v>73.20601563880587</v>
+        <v>302.1597537241305</v>
       </c>
       <c r="H16" t="n">
-        <v>73.20601563880587</v>
+        <v>172.9745133630634</v>
       </c>
       <c r="I16" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J16" t="n">
-        <v>79.32466191965321</v>
+        <v>79.32466191965311</v>
       </c>
       <c r="K16" t="n">
-        <v>203.3235852420089</v>
+        <v>203.3235852420086</v>
       </c>
       <c r="L16" t="n">
-        <v>410.6171321895918</v>
+        <v>410.6171321895914</v>
       </c>
       <c r="M16" t="n">
-        <v>638.225292047507</v>
+        <v>638.2252920475065</v>
       </c>
       <c r="N16" t="n">
-        <v>866.4434782183693</v>
+        <v>866.4434782183687</v>
       </c>
       <c r="O16" t="n">
-        <v>1063.109528897735</v>
+        <v>1063.109528897734</v>
       </c>
       <c r="P16" t="n">
-        <v>1211.436193392008</v>
+        <v>1211.436193392007</v>
       </c>
       <c r="Q16" t="n">
-        <v>1238.295262094753</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="R16" t="n">
-        <v>1238.295262094753</v>
+        <v>1132.33113955152</v>
       </c>
       <c r="S16" t="n">
-        <v>1238.295262094753</v>
+        <v>949.8287871303687</v>
       </c>
       <c r="T16" t="n">
-        <v>1238.295262094753</v>
+        <v>949.8287871303687</v>
       </c>
       <c r="U16" t="n">
-        <v>1238.295262094753</v>
+        <v>949.8287871303687</v>
       </c>
       <c r="V16" t="n">
-        <v>1238.295262094753</v>
+        <v>949.8287871303687</v>
       </c>
       <c r="W16" t="n">
-        <v>1019.050588223525</v>
+        <v>836.9225815337105</v>
       </c>
       <c r="X16" t="n">
-        <v>816.2673709098782</v>
+        <v>836.9225815337105</v>
       </c>
       <c r="Y16" t="n">
-        <v>620.6811253507184</v>
+        <v>836.9225815337105</v>
       </c>
     </row>
     <row r="17">
@@ -5501,16 +5501,16 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F17" t="n">
-        <v>679.2595952135341</v>
+        <v>679.2595952135343</v>
       </c>
       <c r="G17" t="n">
-        <v>345.690787549999</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H17" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551417</v>
       </c>
       <c r="I17" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J17" t="n">
         <v>258.9898176069164</v>
@@ -5534,16 +5534,16 @@
         <v>3418.758763931393</v>
       </c>
       <c r="Q17" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R17" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S17" t="n">
         <v>3586.856658284236</v>
       </c>
       <c r="T17" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U17" t="n">
         <v>3285.318664764112</v>
@@ -5580,16 +5580,16 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H18" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I18" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J18" t="n">
         <v>190.1641956615503</v>
@@ -5601,10 +5601,10 @@
         <v>1017.137375390435</v>
       </c>
       <c r="M18" t="n">
-        <v>1269.865530007199</v>
+        <v>1653.120684104607</v>
       </c>
       <c r="N18" t="n">
-        <v>1463.839487262977</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O18" t="n">
         <v>2008.991663148739</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>419.5025855012065</v>
+        <v>550.17737119407</v>
       </c>
       <c r="C19" t="n">
-        <v>334.1197110509811</v>
+        <v>464.7944967438448</v>
       </c>
       <c r="D19" t="n">
-        <v>267.556380116327</v>
+        <v>398.2311658091907</v>
       </c>
       <c r="E19" t="n">
-        <v>267.556380116327</v>
+        <v>333.8713807044792</v>
       </c>
       <c r="F19" t="n">
-        <v>204.2197410960982</v>
+        <v>270.5347416842504</v>
       </c>
       <c r="G19" t="n">
-        <v>119.1508033493551</v>
+        <v>185.4658039375074</v>
       </c>
       <c r="H19" t="n">
-        <v>114.627538469752</v>
+        <v>114.6275384697519</v>
       </c>
       <c r="I19" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J19" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K19" t="n">
         <v>317.6953254278777</v>
       </c>
       <c r="L19" t="n">
-        <v>582.1747424683949</v>
+        <v>582.174742468395</v>
       </c>
       <c r="M19" t="n">
         <v>866.9687724192447</v>
@@ -5701,22 +5701,22 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T19" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U19" t="n">
         <v>1176.268296227434</v>
       </c>
       <c r="V19" t="n">
-        <v>1005.137116499228</v>
+        <v>1135.811902192092</v>
       </c>
       <c r="W19" t="n">
-        <v>799.2732549399491</v>
+        <v>929.9480406328125</v>
       </c>
       <c r="X19" t="n">
-        <v>654.8370125196133</v>
+        <v>785.5117982124768</v>
       </c>
       <c r="Y19" t="n">
-        <v>517.5977418537647</v>
+        <v>648.2725275466281</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>1869.048734237822</v>
       </c>
       <c r="C20" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D20" t="n">
         <v>1308.927135646023</v>
@@ -5738,19 +5738,19 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F20" t="n">
-        <v>679.2595952135341</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G20" t="n">
-        <v>345.690787549999</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H20" t="n">
         <v>110.6693538551414</v>
       </c>
       <c r="I20" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J20" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K20" t="n">
         <v>658.17638152235</v>
@@ -5771,7 +5771,7 @@
         <v>3418.758763931393</v>
       </c>
       <c r="Q20" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R20" t="n">
         <v>3660.300781940293</v>
@@ -5789,7 +5789,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W20" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X20" t="n">
         <v>2478.681289322392</v>
@@ -5817,37 +5817,37 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H21" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I21" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J21" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K21" t="n">
-        <v>137.9064325948631</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L21" t="n">
-        <v>549.2569667768707</v>
+        <v>638.3586107252377</v>
       </c>
       <c r="M21" t="n">
-        <v>1185.240275491043</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N21" t="n">
-        <v>1853.763183346939</v>
+        <v>1942.864827295306</v>
       </c>
       <c r="O21" t="n">
-        <v>2008.991663148739</v>
+        <v>2488.017003181068</v>
       </c>
       <c r="P21" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q21" t="n">
         <v>2657.936419551312</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>420.2774012391877</v>
+        <v>550.1773711940707</v>
       </c>
       <c r="C22" t="n">
-        <v>334.8945267889623</v>
+        <v>464.7944967438453</v>
       </c>
       <c r="D22" t="n">
-        <v>334.8945267889623</v>
+        <v>398.2311658091912</v>
       </c>
       <c r="E22" t="n">
-        <v>270.5347416842507</v>
+        <v>333.8713807044796</v>
       </c>
       <c r="F22" t="n">
-        <v>270.5347416842507</v>
+        <v>270.5347416842508</v>
       </c>
       <c r="G22" t="n">
         <v>185.4658039375076</v>
@@ -5905,16 +5905,16 @@
         <v>114.627538469752</v>
       </c>
       <c r="I22" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J22" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125878</v>
       </c>
       <c r="K22" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L22" t="n">
-        <v>582.1747424683949</v>
+        <v>582.174742468395</v>
       </c>
       <c r="M22" t="n">
         <v>866.9687724192447</v>
@@ -5941,19 +5941,19 @@
         <v>1381.868004238607</v>
       </c>
       <c r="U22" t="n">
-        <v>1176.268296227433</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V22" t="n">
         <v>1005.137116499228</v>
       </c>
       <c r="W22" t="n">
-        <v>799.2732549399486</v>
+        <v>929.9480406328132</v>
       </c>
       <c r="X22" t="n">
-        <v>655.6118282575944</v>
+        <v>785.5117982124774</v>
       </c>
       <c r="Y22" t="n">
-        <v>518.3725575917459</v>
+        <v>648.2725275466289</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C23" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E23" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525461</v>
       </c>
       <c r="F23" t="n">
-        <v>679.259595213534</v>
+        <v>679.2595952135345</v>
       </c>
       <c r="G23" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H23" t="n">
-        <v>110.6693538551412</v>
+        <v>110.6693538551413</v>
       </c>
       <c r="I23" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J23" t="n">
         <v>258.9898176069164</v>
@@ -5996,43 +5996,43 @@
         <v>1205.679240092235</v>
       </c>
       <c r="M23" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N23" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O23" t="n">
-        <v>2994.282791219485</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P23" t="n">
         <v>3418.758763931393</v>
       </c>
       <c r="Q23" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R23" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S23" t="n">
         <v>3586.856658284236</v>
       </c>
       <c r="T23" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U23" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V23" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W23" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X23" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y23" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="24">
@@ -6054,31 +6054,31 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G24" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H24" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I24" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J24" t="n">
         <v>190.1641956615503</v>
       </c>
       <c r="K24" t="n">
-        <v>516.6851972600602</v>
+        <v>415.9367304969207</v>
       </c>
       <c r="L24" t="n">
-        <v>1017.137375390435</v>
+        <v>549.2569667768709</v>
       </c>
       <c r="M24" t="n">
-        <v>1192.072670992107</v>
+        <v>1185.240275491043</v>
       </c>
       <c r="N24" t="n">
-        <v>1463.839487262977</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O24" t="n">
         <v>2008.991663148739</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>485.8175860893588</v>
+        <v>517.5977418537656</v>
       </c>
       <c r="C25" t="n">
-        <v>400.4347116391335</v>
+        <v>464.7944967438448</v>
       </c>
       <c r="D25" t="n">
-        <v>333.8713807044794</v>
+        <v>398.2311658091907</v>
       </c>
       <c r="E25" t="n">
-        <v>333.8713807044794</v>
+        <v>333.8713807044792</v>
       </c>
       <c r="F25" t="n">
-        <v>270.5347416842506</v>
+        <v>270.5347416842504</v>
       </c>
       <c r="G25" t="n">
-        <v>185.4658039375076</v>
+        <v>185.4658039375074</v>
       </c>
       <c r="H25" t="n">
-        <v>114.627538469752</v>
+        <v>114.6275384697519</v>
       </c>
       <c r="I25" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J25" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K25" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L25" t="n">
-        <v>582.174742468395</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M25" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192449</v>
       </c>
       <c r="N25" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O25" t="n">
         <v>1406.224749455342</v>
@@ -6166,31 +6166,31 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q25" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R25" t="n">
-        <v>1648.165075188309</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S25" t="n">
-        <v>1524.009697660469</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T25" t="n">
         <v>1381.868004238608</v>
       </c>
       <c r="U25" t="n">
-        <v>1176.268296227435</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V25" t="n">
         <v>1005.137116499229</v>
       </c>
       <c r="W25" t="n">
-        <v>799.2732549399502</v>
+        <v>799.2732549399498</v>
       </c>
       <c r="X25" t="n">
-        <v>654.8370125196144</v>
+        <v>654.8370125196141</v>
       </c>
       <c r="Y25" t="n">
-        <v>517.5977418537663</v>
+        <v>517.5977418537656</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C26" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D26" t="n">
         <v>1308.927135646023</v>
@@ -6212,13 +6212,13 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F26" t="n">
-        <v>679.2595952135346</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G26" t="n">
-        <v>345.6907875499994</v>
+        <v>345.690787549999</v>
       </c>
       <c r="H26" t="n">
-        <v>110.6693538551419</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I26" t="n">
         <v>73.20601563880587</v>
@@ -6227,7 +6227,7 @@
         <v>258.9898176069164</v>
       </c>
       <c r="K26" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L26" t="n">
         <v>1205.679240092235</v>
@@ -6257,19 +6257,19 @@
         <v>3455.459806291491</v>
       </c>
       <c r="U26" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V26" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W26" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X26" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y26" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J27" t="n">
-        <v>73.20601563880587</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K27" t="n">
-        <v>399.7270172373158</v>
+        <v>254.8646126176074</v>
       </c>
       <c r="L27" t="n">
-        <v>900.1791953676905</v>
+        <v>755.3167907479822</v>
       </c>
       <c r="M27" t="n">
-        <v>1269.865530007199</v>
+        <v>1391.300099462154</v>
       </c>
       <c r="N27" t="n">
-        <v>1463.839487262977</v>
+        <v>1585.274056717932</v>
       </c>
       <c r="O27" t="n">
-        <v>2008.991663148739</v>
+        <v>2130.426232603694</v>
       </c>
       <c r="P27" t="n">
         <v>2429.521278084463</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>485.8175860893586</v>
+        <v>543.6579630290468</v>
       </c>
       <c r="C28" t="n">
-        <v>400.4347116391333</v>
+        <v>458.2750885788214</v>
       </c>
       <c r="D28" t="n">
-        <v>333.8713807044792</v>
+        <v>391.7117576441672</v>
       </c>
       <c r="E28" t="n">
-        <v>333.8713807044792</v>
+        <v>327.3519725394559</v>
       </c>
       <c r="F28" t="n">
-        <v>270.5347416842504</v>
+        <v>264.015333519227</v>
       </c>
       <c r="G28" t="n">
-        <v>185.4658039375074</v>
+        <v>178.9463957724839</v>
       </c>
       <c r="H28" t="n">
-        <v>114.6275384697519</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I28" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K28" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L28" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M28" t="n">
-        <v>866.9687724192449</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N28" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O28" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P28" t="n">
-        <v>1611.73728404255</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q28" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R28" t="n">
-        <v>1648.165075188309</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S28" t="n">
-        <v>1524.009697660469</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="T28" t="n">
-        <v>1381.868004238608</v>
+        <v>1506.023381766447</v>
       </c>
       <c r="U28" t="n">
-        <v>1176.268296227435</v>
+        <v>1300.423673755274</v>
       </c>
       <c r="V28" t="n">
-        <v>1005.137116499229</v>
+        <v>1129.292494027069</v>
       </c>
       <c r="W28" t="n">
-        <v>799.2732549399502</v>
+        <v>923.4286324677894</v>
       </c>
       <c r="X28" t="n">
-        <v>654.8370125196145</v>
+        <v>778.9923900474536</v>
       </c>
       <c r="Y28" t="n">
-        <v>517.5977418537666</v>
+        <v>641.753119381605</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1006.692191525461</v>
       </c>
       <c r="F29" t="n">
-        <v>679.2595952135348</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G29" t="n">
-        <v>345.6907875499996</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H29" t="n">
-        <v>110.6693538551421</v>
+        <v>110.6693538551413</v>
       </c>
       <c r="I29" t="n">
         <v>73.20601563880587</v>
@@ -6464,7 +6464,7 @@
         <v>258.9898176069164</v>
       </c>
       <c r="K29" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L29" t="n">
         <v>1205.679240092235</v>
@@ -6488,25 +6488,25 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S29" t="n">
-        <v>3586.856658284236</v>
+        <v>3586.856658284237</v>
       </c>
       <c r="T29" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U29" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764113</v>
       </c>
       <c r="V29" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898224</v>
       </c>
       <c r="W29" t="n">
         <v>2768.593739105791</v>
       </c>
       <c r="X29" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322393</v>
       </c>
       <c r="Y29" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824263</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J30" t="n">
-        <v>73.20601563880587</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K30" t="n">
-        <v>137.906432594863</v>
+        <v>448.7081841161897</v>
       </c>
       <c r="L30" t="n">
-        <v>367.3097855513993</v>
+        <v>949.1603622465644</v>
       </c>
       <c r="M30" t="n">
-        <v>1003.293094265572</v>
+        <v>1585.143670960737</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.816002121468</v>
+        <v>1779.117628216515</v>
       </c>
       <c r="O30" t="n">
-        <v>2216.96817800723</v>
+        <v>2324.269804102277</v>
       </c>
       <c r="P30" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q30" t="n">
         <v>2657.936419551312</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>517.597741853766</v>
+        <v>419.5025855012069</v>
       </c>
       <c r="C31" t="n">
-        <v>464.7944967438447</v>
+        <v>334.1197110509816</v>
       </c>
       <c r="D31" t="n">
-        <v>398.2311658091905</v>
+        <v>267.5563801163274</v>
       </c>
       <c r="E31" t="n">
-        <v>333.8713807044791</v>
+        <v>221.6115924057777</v>
       </c>
       <c r="F31" t="n">
-        <v>270.5347416842504</v>
+        <v>158.2749533855489</v>
       </c>
       <c r="G31" t="n">
-        <v>185.4658039375074</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="H31" t="n">
-        <v>114.6275384697519</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I31" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125875</v>
       </c>
       <c r="K31" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L31" t="n">
-        <v>582.174742468395</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M31" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N31" t="n">
         <v>1152.372828683041</v>
@@ -6640,31 +6640,31 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q31" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R31" t="n">
-        <v>1648.165075188309</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S31" t="n">
-        <v>1524.009697660469</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T31" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U31" t="n">
-        <v>1176.268296227435</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V31" t="n">
         <v>1005.137116499229</v>
       </c>
       <c r="W31" t="n">
-        <v>799.2732549399502</v>
+        <v>799.2732549399498</v>
       </c>
       <c r="X31" t="n">
-        <v>654.8370125196145</v>
+        <v>654.8370125196141</v>
       </c>
       <c r="Y31" t="n">
-        <v>517.597741853766</v>
+        <v>517.597741853765</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>1869.048734237822</v>
       </c>
       <c r="C32" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D32" t="n">
         <v>1308.927135646023</v>
@@ -6686,10 +6686,10 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F32" t="n">
-        <v>679.2595952135341</v>
+        <v>679.2595952135343</v>
       </c>
       <c r="G32" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H32" t="n">
         <v>110.6693538551413</v>
@@ -6737,7 +6737,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W32" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X32" t="n">
         <v>2478.681289322392</v>
@@ -6777,25 +6777,25 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J33" t="n">
-        <v>73.20601563880587</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K33" t="n">
-        <v>137.906432594863</v>
+        <v>254.8646126176074</v>
       </c>
       <c r="L33" t="n">
-        <v>367.3097855513993</v>
+        <v>755.3167907479822</v>
       </c>
       <c r="M33" t="n">
-        <v>1003.293094265572</v>
+        <v>1391.300099462154</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.816002121468</v>
+        <v>1585.274056717932</v>
       </c>
       <c r="O33" t="n">
-        <v>2216.96817800723</v>
+        <v>2130.426232603694</v>
       </c>
       <c r="P33" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q33" t="n">
         <v>2657.936419551312</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>464.794496743845</v>
+        <v>550.1773711940704</v>
       </c>
       <c r="C34" t="n">
         <v>464.794496743845</v>
@@ -6856,16 +6856,16 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5105320125874</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K34" t="n">
-        <v>317.6953254278775</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L34" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M34" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N34" t="n">
         <v>1152.372828683041</v>
@@ -6877,7 +6877,7 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q34" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R34" t="n">
         <v>1648.165075188308</v>
@@ -6892,16 +6892,16 @@
         <v>1176.268296227434</v>
       </c>
       <c r="V34" t="n">
-        <v>1005.137116499229</v>
+        <v>1135.811902192092</v>
       </c>
       <c r="W34" t="n">
-        <v>799.27325493995</v>
+        <v>929.9480406328128</v>
       </c>
       <c r="X34" t="n">
-        <v>654.8370125196141</v>
+        <v>785.5117982124769</v>
       </c>
       <c r="Y34" t="n">
-        <v>562.8896530964031</v>
+        <v>648.2725275466285</v>
       </c>
     </row>
     <row r="35">
@@ -6926,13 +6926,13 @@
         <v>679.2595952135341</v>
       </c>
       <c r="G35" t="n">
-        <v>345.6907875499989</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H35" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I35" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J35" t="n">
         <v>258.9898176069163</v>
@@ -6953,7 +6953,7 @@
         <v>2994.282791219484</v>
       </c>
       <c r="P35" t="n">
-        <v>3418.758763931392</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q35" t="n">
         <v>3660.300781940293</v>
@@ -6962,7 +6962,7 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S35" t="n">
-        <v>3586.856658284236</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T35" t="n">
         <v>3455.459806291491</v>
@@ -6971,16 +6971,16 @@
         <v>3285.318664764112</v>
       </c>
       <c r="V35" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W35" t="n">
         <v>2768.59373910579</v>
       </c>
       <c r="X35" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y35" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G36" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H36" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I36" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J36" t="n">
-        <v>73.20601563880585</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K36" t="n">
-        <v>137.906432594863</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L36" t="n">
-        <v>638.3586107252377</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M36" t="n">
-        <v>1274.34191943941</v>
+        <v>1653.120684104607</v>
       </c>
       <c r="N36" t="n">
-        <v>1942.864827295306</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O36" t="n">
-        <v>2488.017003181068</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P36" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q36" t="n">
         <v>2657.936419551312</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>419.5025855012069</v>
+        <v>419.5025855012077</v>
       </c>
       <c r="C37" t="n">
-        <v>334.1197110509816</v>
+        <v>334.1197110509823</v>
       </c>
       <c r="D37" t="n">
-        <v>267.5563801163274</v>
+        <v>267.5563801163282</v>
       </c>
       <c r="E37" t="n">
-        <v>221.6115924057777</v>
+        <v>203.1965950116166</v>
       </c>
       <c r="F37" t="n">
-        <v>158.2749533855489</v>
+        <v>139.8599559913879</v>
       </c>
       <c r="G37" t="n">
-        <v>73.20601563880585</v>
+        <v>139.8599559913879</v>
       </c>
       <c r="H37" t="n">
-        <v>73.20601563880585</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I37" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J37" t="n">
         <v>136.5105320125876</v>
@@ -7129,16 +7129,16 @@
         <v>1176.268296227434</v>
       </c>
       <c r="V37" t="n">
-        <v>1005.137116499228</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W37" t="n">
-        <v>799.2732549399493</v>
+        <v>799.27325493995</v>
       </c>
       <c r="X37" t="n">
-        <v>654.8370125196136</v>
+        <v>654.8370125196141</v>
       </c>
       <c r="Y37" t="n">
-        <v>517.597741853765</v>
+        <v>517.5977418537658</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C38" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D38" t="n">
         <v>1308.927135646023</v>
       </c>
       <c r="E38" t="n">
-        <v>1006.692191525461</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F38" t="n">
-        <v>679.2595952135348</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G38" t="n">
-        <v>345.6907875499994</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H38" t="n">
         <v>110.6693538551413</v>
@@ -7172,10 +7172,10 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J38" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K38" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L38" t="n">
         <v>1205.679240092235</v>
@@ -7211,7 +7211,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W38" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X38" t="n">
         <v>2478.681289322392</v>
@@ -7251,16 +7251,16 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J39" t="n">
-        <v>73.20601563880587</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K39" t="n">
-        <v>137.906432594863</v>
+        <v>448.7081841161897</v>
       </c>
       <c r="L39" t="n">
-        <v>474.6114116464465</v>
+        <v>949.1603622465644</v>
       </c>
       <c r="M39" t="n">
-        <v>1110.594720360619</v>
+        <v>1585.143670960737</v>
       </c>
       <c r="N39" t="n">
         <v>1779.117628216515</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>479.3391057263145</v>
+        <v>550.1773711940704</v>
       </c>
       <c r="C40" t="n">
-        <v>393.9562312760893</v>
+        <v>464.794496743845</v>
       </c>
       <c r="D40" t="n">
-        <v>327.3929003414352</v>
+        <v>398.2311658091908</v>
       </c>
       <c r="E40" t="n">
-        <v>263.0331152367237</v>
+        <v>333.8713807044793</v>
       </c>
       <c r="F40" t="n">
-        <v>199.6964762164949</v>
+        <v>270.5347416842505</v>
       </c>
       <c r="G40" t="n">
-        <v>114.6275384697519</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="H40" t="n">
         <v>114.6275384697519</v>
@@ -7330,10 +7330,10 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J40" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K40" t="n">
-        <v>317.6953254278776</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L40" t="n">
         <v>582.1747424683949</v>
@@ -7351,31 +7351,31 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q40" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R40" t="n">
-        <v>1648.165075188309</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S40" t="n">
-        <v>1524.009697660469</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T40" t="n">
         <v>1381.868004238608</v>
       </c>
       <c r="U40" t="n">
-        <v>1176.268296227435</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V40" t="n">
-        <v>1064.973636724336</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W40" t="n">
-        <v>859.1097751650568</v>
+        <v>799.2732549399493</v>
       </c>
       <c r="X40" t="n">
-        <v>714.6735327447211</v>
+        <v>785.5117982124771</v>
       </c>
       <c r="Y40" t="n">
-        <v>577.4342620788726</v>
+        <v>648.2725275466285</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C41" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D41" t="n">
         <v>1308.927135646023</v>
@@ -7397,10 +7397,10 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F41" t="n">
-        <v>679.2595952135346</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6907875499994</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H41" t="n">
         <v>110.6693538551413</v>
@@ -7409,10 +7409,10 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J41" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K41" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L41" t="n">
         <v>1205.679240092235</v>
@@ -7488,22 +7488,22 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J42" t="n">
-        <v>73.20601563880587</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K42" t="n">
-        <v>137.906432594863</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L42" t="n">
-        <v>367.3097855513993</v>
+        <v>650.0054335400104</v>
       </c>
       <c r="M42" t="n">
-        <v>1003.293094265572</v>
+        <v>1285.988742254183</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.816002121468</v>
+        <v>1954.511650110079</v>
       </c>
       <c r="O42" t="n">
-        <v>2216.96817800723</v>
+        <v>2499.663825995841</v>
       </c>
       <c r="P42" t="n">
         <v>2637.497792942953</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>550.1773711940701</v>
+        <v>423.3729739128989</v>
       </c>
       <c r="C43" t="n">
-        <v>464.7944967438449</v>
+        <v>423.3729739128989</v>
       </c>
       <c r="D43" t="n">
-        <v>398.2311658091908</v>
+        <v>356.8096429782448</v>
       </c>
       <c r="E43" t="n">
-        <v>333.8713807044793</v>
+        <v>292.4498578735333</v>
       </c>
       <c r="F43" t="n">
-        <v>270.5347416842505</v>
+        <v>229.1132188533045</v>
       </c>
       <c r="G43" t="n">
-        <v>185.4658039375074</v>
+        <v>144.0442811065614</v>
       </c>
       <c r="H43" t="n">
-        <v>114.6275384697519</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I43" t="n">
         <v>73.20601563880587</v>
@@ -7573,22 +7573,22 @@
         <v>317.6953254278778</v>
       </c>
       <c r="L43" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M43" t="n">
-        <v>866.9687724192449</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N43" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O43" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P43" t="n">
-        <v>1611.73728404255</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q43" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R43" t="n">
         <v>1648.165075188308</v>
@@ -7600,19 +7600,19 @@
         <v>1381.868004238608</v>
       </c>
       <c r="U43" t="n">
-        <v>1176.268296227435</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V43" t="n">
-        <v>1005.13711649923</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W43" t="n">
-        <v>799.2732549399508</v>
+        <v>799.2732549399498</v>
       </c>
       <c r="X43" t="n">
-        <v>654.8370125196151</v>
+        <v>654.8370125196141</v>
       </c>
       <c r="Y43" t="n">
-        <v>648.2725275466282</v>
+        <v>517.5977418537645</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7625,31 @@
         <v>1869.048734237822</v>
       </c>
       <c r="C44" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D44" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E44" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F44" t="n">
-        <v>679.2595952135346</v>
+        <v>679.2595952135335</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6907875499994</v>
+        <v>345.6907875499983</v>
       </c>
       <c r="H44" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I44" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J44" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K44" t="n">
-        <v>658.1763815223503</v>
+        <v>658.17638152235</v>
       </c>
       <c r="L44" t="n">
         <v>1205.679240092235</v>
@@ -7725,25 +7725,25 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J45" t="n">
-        <v>73.20601563880587</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K45" t="n">
-        <v>137.906432594863</v>
+        <v>448.7081841161897</v>
       </c>
       <c r="L45" t="n">
-        <v>367.3097855513993</v>
+        <v>949.1603622465644</v>
       </c>
       <c r="M45" t="n">
-        <v>1003.293094265572</v>
+        <v>1585.143670960737</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.816002121468</v>
+        <v>1779.117628216515</v>
       </c>
       <c r="O45" t="n">
-        <v>2216.96817800723</v>
+        <v>2324.269804102277</v>
       </c>
       <c r="P45" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q45" t="n">
         <v>2657.936419551312</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>419.5025855012085</v>
+        <v>419.5025855012051</v>
       </c>
       <c r="C46" t="n">
-        <v>360.03633489267</v>
+        <v>334.1197110509797</v>
       </c>
       <c r="D46" t="n">
-        <v>293.4730039580159</v>
+        <v>333.8713807044796</v>
       </c>
       <c r="E46" t="n">
-        <v>229.1132188533044</v>
+        <v>333.8713807044796</v>
       </c>
       <c r="F46" t="n">
-        <v>229.1132188533044</v>
+        <v>270.5347416842508</v>
       </c>
       <c r="G46" t="n">
-        <v>144.0442811065614</v>
+        <v>185.4658039375076</v>
       </c>
       <c r="H46" t="n">
-        <v>73.20601563880587</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I46" t="n">
         <v>73.20601563880587</v>
@@ -7810,46 +7810,46 @@
         <v>317.6953254278777</v>
       </c>
       <c r="L46" t="n">
-        <v>582.174742468395</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M46" t="n">
-        <v>866.9687724192448</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N46" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O46" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P46" t="n">
-        <v>1611.73728404255</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q46" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R46" t="n">
-        <v>1648.165075188309</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S46" t="n">
-        <v>1524.009697660469</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T46" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U46" t="n">
-        <v>1176.268296227435</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V46" t="n">
-        <v>1005.13711649923</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W46" t="n">
-        <v>799.2732549399507</v>
+        <v>799.2732549399487</v>
       </c>
       <c r="X46" t="n">
-        <v>654.837012519615</v>
+        <v>654.8370125196128</v>
       </c>
       <c r="Y46" t="n">
-        <v>517.5977418537666</v>
+        <v>517.5977418537634</v>
       </c>
     </row>
   </sheetData>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8541,7 +8541,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,10 +8769,10 @@
         <v>7.951459559858918</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>151.051184836031</v>
       </c>
       <c r="Q12" t="n">
-        <v>120.0756271819431</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>7.951459559858932</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>6.735900996518836</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>191.9183716552138</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,13 +9249,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>78.57864546978945</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>6.735900996519121</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>7.951459559858918</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>280.838684749553</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>44.67607654515086</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>162.6991089690034</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>78.57864546978945</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>7.951459559858932</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>196.7182212503395</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>195.8015873723056</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>7.951459559858932</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>195.8015873723054</v>
       </c>
       <c r="L30" t="n">
-        <v>97.05365320867287</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>7.951459559858932</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>97.05365320867287</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>195.8015873723056</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>7.951459559858932</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10674,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>6.735900996519121</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>44.67607654515086</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>7.951459559858932</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>195.8015873723054</v>
       </c>
       <c r="L39" t="n">
-        <v>205.439134112761</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>7.951459559858932</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>97.05365320867287</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>32.91160905548136</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>7.951459559858932</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>195.8015873723054</v>
       </c>
       <c r="L45" t="n">
-        <v>97.05365320867287</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>340.318621522481</v>
+        <v>340.3186215224812</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>387.9966247312782</v>
       </c>
       <c r="H11" t="n">
-        <v>205.0785104081591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>94.85220997855035</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>226.2032352564835</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>138.1373309119162</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>154.8777099334109</v>
       </c>
       <c r="C13" t="n">
-        <v>142.2925508501013</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>123.6612027696858</v>
+        <v>123.661202769686</v>
       </c>
       <c r="E13" t="n">
-        <v>121.4796923980426</v>
+        <v>121.4796923980428</v>
       </c>
       <c r="F13" t="n">
-        <v>120.4667777744047</v>
+        <v>120.4667777744048</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>127.8933879574563</v>
+        <v>127.8933879574564</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77081274701499</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>104.9044813177991</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>180.6773288969399</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>198.4837816320201</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>185.8816225450664</v>
+        <v>261.3072160754402</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>42.84030043494059</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>261.5687280880646</v>
       </c>
       <c r="X13" t="n">
-        <v>200.7553851405106</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>193.6303831035684</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>90.63724589787905</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>53.64027595923702</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>94.85220997855036</v>
+        <v>94.85220997855046</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.4731875638751</v>
+        <v>130.4731875638752</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>226.2032352564835</v>
+        <v>226.2032352564837</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>324.2866984688866</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>361.283668407527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>154.8777099334109</v>
       </c>
       <c r="C16" t="n">
-        <v>142.2925508501013</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>120.4667777744047</v>
+        <v>120.4667777744048</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>127.8933879574563</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77081274701487</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>104.9044813177991</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>180.6773288969399</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>198.4837816320201</v>
+        <v>198.4837816320202</v>
       </c>
       <c r="U16" t="n">
-        <v>261.3072160754401</v>
+        <v>261.3072160754402</v>
       </c>
       <c r="V16" t="n">
-        <v>227.1833730753015</v>
+        <v>227.1833730753016</v>
       </c>
       <c r="W16" t="n">
-        <v>44.51650095554919</v>
+        <v>149.791584547373</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>200.7553851405108</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>193.6303831035684</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>63.71618725366446</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>65.65185058227101</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>129.3680378359346</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.89769762530764</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>62.70327263002653</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>129.3680378359353</v>
       </c>
       <c r="X22" t="n">
-        <v>0.7670675806019085</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.65185058226922</v>
+        <v>97.11420478903251</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>32.25383304690113</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>63.71618725366442</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65.65185058226854</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>63.71618725366437</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6.454214083373699</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.1142047890325</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>32.25383304690089</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>18.23084742022023</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>84.52904570572308</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>129.3680378359343</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.83899213021108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>18.23084742022028</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H37" t="n">
-        <v>70.12988281307801</v>
+        <v>45.14978946665844</v>
       </c>
       <c r="I37" t="n">
-        <v>41.00730760263663</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>70.12988281307796</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25606,13 +25606,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>59.23815502285508</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>129.3680378359348</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>3.831684527575604</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>129.368037835933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>25.65745760326989</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.65185058227257</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.71618725366449</v>
       </c>
       <c r="F46" t="n">
-        <v>62.70327263002643</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>41.00730760263658</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837669.9834452182</v>
+        <v>837669.9834452177</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>952443.2724134485</v>
+        <v>952443.2724134484</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>952443.2724134485</v>
+        <v>952443.2724134484</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>952443.2724134485</v>
+        <v>952443.2724134484</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>952443.2724134485</v>
+        <v>952443.2724134484</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>952443.2724134485</v>
+        <v>952443.2724134484</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>952443.2724134485</v>
+        <v>952443.2724134484</v>
       </c>
     </row>
   </sheetData>
@@ -26323,37 +26323,37 @@
         <v>447447.6472819539</v>
       </c>
       <c r="F2" t="n">
-        <v>447447.6472819542</v>
+        <v>447447.647281954</v>
       </c>
       <c r="G2" t="n">
-        <v>511210.5855976377</v>
+        <v>511210.5855976384</v>
       </c>
       <c r="H2" t="n">
         <v>511210.585597638</v>
       </c>
       <c r="I2" t="n">
-        <v>511210.5855976383</v>
+        <v>511210.5855976385</v>
       </c>
       <c r="J2" t="n">
-        <v>511210.5855976385</v>
+        <v>511210.5855976377</v>
       </c>
       <c r="K2" t="n">
-        <v>511210.5855976385</v>
+        <v>511210.5855976382</v>
       </c>
       <c r="L2" t="n">
-        <v>511210.5855976381</v>
+        <v>511210.5855976382</v>
       </c>
       <c r="M2" t="n">
-        <v>511210.5855976384</v>
+        <v>511210.5855976382</v>
       </c>
       <c r="N2" t="n">
-        <v>511210.5855976386</v>
+        <v>511210.5855976382</v>
       </c>
       <c r="O2" t="n">
-        <v>511210.5855976384</v>
+        <v>511210.5855976382</v>
       </c>
       <c r="P2" t="n">
-        <v>511210.5855976385</v>
+        <v>511210.5855976379</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691230.6639893667</v>
+        <v>691230.6639893665</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46210.80411550255</v>
+        <v>46210.80411550271</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>83023.35879792747</v>
+        <v>83023.35879792727</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46210.80411550251</v>
+        <v>46210.80411550271</v>
       </c>
       <c r="M3" t="n">
         <v>167978.674170194</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>19963.41619882125</v>
+        <v>19963.41619882105</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
-        <v>58212.51237564227</v>
+        <v>58212.51237564214</v>
       </c>
       <c r="F4" t="n">
-        <v>58212.51237564227</v>
+        <v>58212.51237564214</v>
       </c>
       <c r="G4" t="n">
-        <v>116585.175488433</v>
+        <v>116585.1754884331</v>
       </c>
       <c r="H4" t="n">
         <v>116585.175488433</v>
       </c>
       <c r="I4" t="n">
+        <v>116585.1754884331</v>
+      </c>
+      <c r="J4" t="n">
         <v>116585.175488433</v>
       </c>
-      <c r="J4" t="n">
-        <v>116585.1754884331</v>
-      </c>
       <c r="K4" t="n">
-        <v>116585.1754884331</v>
+        <v>116585.175488433</v>
       </c>
       <c r="L4" t="n">
         <v>116585.175488433</v>
@@ -26451,13 +26451,13 @@
         <v>116585.175488433</v>
       </c>
       <c r="N4" t="n">
-        <v>116585.1754884331</v>
+        <v>116585.175488433</v>
       </c>
       <c r="O4" t="n">
-        <v>116585.1754884331</v>
+        <v>116585.175488433</v>
       </c>
       <c r="P4" t="n">
-        <v>116585.1754884331</v>
+        <v>116585.175488433</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>70487.9065394793</v>
+        <v>70487.90653947929</v>
       </c>
       <c r="F5" t="n">
         <v>70487.90653947929</v>
@@ -26485,13 +26485,13 @@
         <v>75344.02665346203</v>
       </c>
       <c r="H5" t="n">
-        <v>75344.02665346203</v>
+        <v>75344.02665346202</v>
       </c>
       <c r="I5" t="n">
         <v>75344.02665346203</v>
       </c>
       <c r="J5" t="n">
-        <v>75344.02665346203</v>
+        <v>75344.02665346202</v>
       </c>
       <c r="K5" t="n">
         <v>75344.02665346203</v>
@@ -26500,7 +26500,7 @@
         <v>75344.02665346203</v>
       </c>
       <c r="M5" t="n">
-        <v>75344.02665346202</v>
+        <v>75344.02665346203</v>
       </c>
       <c r="N5" t="n">
         <v>75344.02665346203</v>
@@ -26509,7 +26509,7 @@
         <v>75344.02665346203</v>
       </c>
       <c r="P5" t="n">
-        <v>75344.02665346203</v>
+        <v>75344.02665346202</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71505.0314511506</v>
+        <v>71505.03145115054</v>
       </c>
       <c r="C6" t="n">
         <v>152274.4629826981</v>
@@ -26528,40 +26528,40 @@
         <v>152274.4629826983</v>
       </c>
       <c r="E6" t="n">
-        <v>-372483.4356225344</v>
+        <v>-372746.2494580669</v>
       </c>
       <c r="F6" t="n">
-        <v>318747.2283668327</v>
+        <v>318484.4145312997</v>
       </c>
       <c r="G6" t="n">
-        <v>273070.5793402402</v>
+        <v>273062.8172579705</v>
       </c>
       <c r="H6" t="n">
-        <v>319281.383455743</v>
+        <v>319273.6213734729</v>
       </c>
       <c r="I6" t="n">
-        <v>319281.3834557432</v>
+        <v>319273.6213734732</v>
       </c>
       <c r="J6" t="n">
-        <v>236258.0246578159</v>
+        <v>236250.2625755453</v>
       </c>
       <c r="K6" t="n">
-        <v>319281.3834557434</v>
+        <v>319273.6213734729</v>
       </c>
       <c r="L6" t="n">
-        <v>273070.5793402405</v>
+        <v>273062.8172579702</v>
       </c>
       <c r="M6" t="n">
-        <v>151302.7092855492</v>
+        <v>151294.947203279</v>
       </c>
       <c r="N6" t="n">
-        <v>319281.3834557434</v>
+        <v>319273.6213734729</v>
       </c>
       <c r="O6" t="n">
-        <v>299317.967256922</v>
+        <v>299310.2051746519</v>
       </c>
       <c r="P6" t="n">
-        <v>319281.3834557434</v>
+        <v>319273.6213734729</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="F2" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="G2" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H2" t="n">
         <v>82.71777539290471</v>
       </c>
       <c r="I2" t="n">
+        <v>82.71777539290478</v>
+      </c>
+      <c r="J2" t="n">
+        <v>82.7177753929047</v>
+      </c>
+      <c r="K2" t="n">
         <v>82.71777539290476</v>
-      </c>
-      <c r="J2" t="n">
-        <v>82.7177753929048</v>
-      </c>
-      <c r="K2" t="n">
-        <v>82.7177753929048</v>
       </c>
       <c r="L2" t="n">
         <v>82.71777539290476</v>
@@ -26719,13 +26719,13 @@
         <v>82.71777539290476</v>
       </c>
       <c r="N2" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O2" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P2" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="3">
@@ -26747,16 +26747,16 @@
         <v>585.0208306634614</v>
       </c>
       <c r="F3" t="n">
+        <v>585.0208306634614</v>
+      </c>
+      <c r="G3" t="n">
         <v>585.0208306634613</v>
       </c>
-      <c r="G3" t="n">
-        <v>585.0208306634614</v>
-      </c>
       <c r="H3" t="n">
-        <v>585.0208306634614</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="I3" t="n">
-        <v>585.0208306634614</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="J3" t="n">
         <v>585.0208306634613</v>
@@ -26802,13 +26802,13 @@
         <v>915.0751954850733</v>
       </c>
       <c r="G4" t="n">
-        <v>915.0751954850734</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="H4" t="n">
-        <v>915.0751954850734</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="I4" t="n">
-        <v>915.0751954850734</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="J4" t="n">
         <v>915.0751954850733</v>
@@ -26820,7 +26820,7 @@
         <v>915.0751954850733</v>
       </c>
       <c r="M4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="N4" t="n">
         <v>915.0751954850733</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.76350514437819</v>
+        <v>57.76350514437839</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852657</v>
+        <v>24.95427024852631</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437814</v>
+        <v>57.76350514437839</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852657</v>
+        <v>24.95427024852631</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.0609066074142</v>
+        <v>674.0609066074143</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437819</v>
+        <v>57.76350514437839</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852657</v>
+        <v>24.95427024852631</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>201.2949868753087</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>277.4605433024327</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27464,19 +27464,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>113.0459400480447</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>27.52789982014198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>95.24412853877561</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>346.5179064736643</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>351.1641048164582</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>21.39188142694573</v>
       </c>
       <c r="H6" t="n">
-        <v>93.11850830536586</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>71.63594515755861</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>14.95552117266971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>201.2949868753087</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>201.5644868610308</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,16 +27932,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>27.19121259668715</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,19 +27986,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>142.9094900234331</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="C11" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="D11" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="E11" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="F11" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="G11" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="H11" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="I11" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S11" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="T11" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="U11" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="V11" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="W11" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="X11" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="C13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="D13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="E13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="F13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="G13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="H13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="I13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="J13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="K13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="L13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="M13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="N13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="O13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="P13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="R13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="S13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="T13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="U13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="V13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="W13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="X13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="C14" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="D14" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="E14" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="F14" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="G14" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="H14" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="I14" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.135189281195295</v>
+        <v>2.135189281195267</v>
       </c>
       <c r="S14" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="T14" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="U14" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="V14" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="W14" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="X14" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="C16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="D16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="E16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="F16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="G16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="H16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="I16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="J16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="K16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="L16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="M16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="N16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="O16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="P16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="R16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="S16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="T16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="U16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="V16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="W16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="X16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.95427024852652</v>
+        <v>24.9542702485264</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.135189281195267</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="K19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="L19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="M19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="N19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="O19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="P19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="R19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="S19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="20">
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2.135189281195267</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S20" t="n">
         <v>82.71777539290471</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>2.135189281195267</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="K25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="L25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="M25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="N25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="O25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="P25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="R25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="S25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="C26" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="D26" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="E26" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="F26" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="G26" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="H26" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="I26" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S26" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="T26" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="U26" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="V26" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="W26" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="X26" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="C28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="D28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="E28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="F28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="G28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="H28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="I28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="J28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="K28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="L28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="M28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="N28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="O28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="P28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="R28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="S28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="T28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="U28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="V28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="W28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="X28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.7177753929048</v>
+        <v>82.7177753929047</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C29" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D29" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E29" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F29" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G29" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H29" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I29" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S29" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T29" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U29" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V29" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W29" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X29" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="32">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C41" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D41" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E41" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F41" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G41" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H41" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I41" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S41" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T41" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U41" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V41" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W41" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X41" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C44" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D44" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E44" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F44" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G44" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H44" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I44" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S44" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T44" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U44" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V44" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W44" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X44" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="K46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="L46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="M46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="N46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="O46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="P46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="R46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="S46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
   </sheetData>
@@ -31993,13 +31993,13 @@
         <v>24.08580736495345</v>
       </c>
       <c r="I14" t="n">
-        <v>90.66940934332904</v>
+        <v>90.66940934332905</v>
       </c>
       <c r="J14" t="n">
         <v>199.6096953830069</v>
       </c>
       <c r="K14" t="n">
-        <v>299.1631899035468</v>
+        <v>299.1631899035469</v>
       </c>
       <c r="L14" t="n">
         <v>371.1383908941676</v>
@@ -32011,10 +32011,10 @@
         <v>419.6451431853591</v>
       </c>
       <c r="O14" t="n">
-        <v>396.2590089746664</v>
+        <v>396.2590089746665</v>
       </c>
       <c r="P14" t="n">
-        <v>338.1978963836947</v>
+        <v>338.1978963836948</v>
       </c>
       <c r="Q14" t="n">
         <v>253.9725355871713</v>
@@ -32023,13 +32023,13 @@
         <v>147.7339286599544</v>
       </c>
       <c r="S14" t="n">
-        <v>53.59261177384373</v>
+        <v>53.59261177384374</v>
       </c>
       <c r="T14" t="n">
         <v>10.29519069840925</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1881474028264396</v>
+        <v>0.1881474028264397</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I15" t="n">
-        <v>43.32465585573747</v>
+        <v>43.32465585573748</v>
       </c>
       <c r="J15" t="n">
         <v>118.8861671068078</v>
       </c>
       <c r="K15" t="n">
-        <v>203.1953954956288</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L15" t="n">
-        <v>273.2212851131571</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M15" t="n">
         <v>318.8363527115864</v>
       </c>
       <c r="N15" t="n">
-        <v>327.2750022406848</v>
+        <v>327.2750022406849</v>
       </c>
       <c r="O15" t="n">
-        <v>299.3926886886866</v>
+        <v>299.3926886886867</v>
       </c>
       <c r="P15" t="n">
-        <v>240.2890275983564</v>
+        <v>240.2890275983565</v>
       </c>
       <c r="Q15" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R15" t="n">
-        <v>78.12787621577323</v>
+        <v>78.12787621577324</v>
       </c>
       <c r="S15" t="n">
-        <v>23.37323790433733</v>
+        <v>23.37323790433734</v>
       </c>
       <c r="T15" t="n">
-        <v>5.072020220563403</v>
+        <v>5.072020220563404</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08278596660332004</v>
+        <v>0.08278596660332005</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,19 +32148,19 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H16" t="n">
-        <v>9.379514301456812</v>
+        <v>9.379514301456814</v>
       </c>
       <c r="I16" t="n">
-        <v>31.72539193171689</v>
+        <v>31.7253919317169</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58536065688095</v>
+        <v>74.58536065688097</v>
       </c>
       <c r="K16" t="n">
         <v>122.5666592767055</v>
       </c>
       <c r="L16" t="n">
-        <v>156.8431256503319</v>
+        <v>156.843125650332</v>
       </c>
       <c r="M16" t="n">
         <v>165.3690849693453</v>
@@ -32175,19 +32175,19 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.33814543018265</v>
+        <v>88.33814543018268</v>
       </c>
       <c r="R16" t="n">
-        <v>47.43463981084391</v>
+        <v>47.43463981084392</v>
       </c>
       <c r="S16" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T16" t="n">
-        <v>4.507537547734864</v>
+        <v>4.507537547734865</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05754303252427494</v>
+        <v>0.05754303252427496</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,13 +32230,13 @@
         <v>24.08580736495345</v>
       </c>
       <c r="I17" t="n">
-        <v>90.66940934332905</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J17" t="n">
         <v>199.6096953830069</v>
       </c>
       <c r="K17" t="n">
-        <v>299.1631899035469</v>
+        <v>299.1631899035468</v>
       </c>
       <c r="L17" t="n">
         <v>371.1383908941676</v>
@@ -32248,10 +32248,10 @@
         <v>419.6451431853591</v>
       </c>
       <c r="O17" t="n">
-        <v>396.2590089746665</v>
+        <v>396.2590089746664</v>
       </c>
       <c r="P17" t="n">
-        <v>338.1978963836948</v>
+        <v>338.1978963836947</v>
       </c>
       <c r="Q17" t="n">
         <v>253.9725355871713</v>
@@ -32260,13 +32260,13 @@
         <v>147.7339286599544</v>
       </c>
       <c r="S17" t="n">
-        <v>53.59261177384374</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T17" t="n">
         <v>10.29519069840925</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1881474028264397</v>
+        <v>0.1881474028264396</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I18" t="n">
-        <v>43.32465585573748</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J18" t="n">
         <v>118.8861671068078</v>
       </c>
       <c r="K18" t="n">
-        <v>203.1953954956289</v>
+        <v>203.1953954956288</v>
       </c>
       <c r="L18" t="n">
-        <v>273.2212851131572</v>
+        <v>273.2212851131571</v>
       </c>
       <c r="M18" t="n">
         <v>318.8363527115864</v>
       </c>
       <c r="N18" t="n">
-        <v>327.2750022406849</v>
+        <v>327.2750022406848</v>
       </c>
       <c r="O18" t="n">
-        <v>299.3926886886867</v>
+        <v>299.3926886886866</v>
       </c>
       <c r="P18" t="n">
-        <v>240.2890275983565</v>
+        <v>240.2890275983564</v>
       </c>
       <c r="Q18" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R18" t="n">
-        <v>78.12787621577324</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S18" t="n">
-        <v>23.37323790433734</v>
+        <v>23.37323790433733</v>
       </c>
       <c r="T18" t="n">
-        <v>5.072020220563404</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08278596660332005</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,19 +32385,19 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H19" t="n">
-        <v>9.379514301456814</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I19" t="n">
-        <v>31.7253919317169</v>
+        <v>31.72539193171689</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58536065688097</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K19" t="n">
         <v>122.5666592767055</v>
       </c>
       <c r="L19" t="n">
-        <v>156.843125650332</v>
+        <v>156.8431256503319</v>
       </c>
       <c r="M19" t="n">
         <v>165.3690849693453</v>
@@ -32412,19 +32412,19 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.33814543018268</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R19" t="n">
-        <v>47.43463981084392</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S19" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T19" t="n">
-        <v>4.507537547734865</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05754303252427496</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,13 +32467,13 @@
         <v>24.08580736495345</v>
       </c>
       <c r="I20" t="n">
-        <v>90.66940934332905</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J20" t="n">
         <v>199.6096953830069</v>
       </c>
       <c r="K20" t="n">
-        <v>299.1631899035469</v>
+        <v>299.1631899035468</v>
       </c>
       <c r="L20" t="n">
         <v>371.1383908941676</v>
@@ -32485,10 +32485,10 @@
         <v>419.6451431853591</v>
       </c>
       <c r="O20" t="n">
-        <v>396.2590089746665</v>
+        <v>396.2590089746664</v>
       </c>
       <c r="P20" t="n">
-        <v>338.1978963836948</v>
+        <v>338.1978963836947</v>
       </c>
       <c r="Q20" t="n">
         <v>253.9725355871713</v>
@@ -32497,13 +32497,13 @@
         <v>147.7339286599544</v>
       </c>
       <c r="S20" t="n">
-        <v>53.59261177384374</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T20" t="n">
         <v>10.29519069840925</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1881474028264397</v>
+        <v>0.1881474028264396</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I21" t="n">
-        <v>43.32465585573748</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J21" t="n">
         <v>118.8861671068078</v>
       </c>
       <c r="K21" t="n">
-        <v>203.1953954956289</v>
+        <v>203.1953954956288</v>
       </c>
       <c r="L21" t="n">
-        <v>273.2212851131572</v>
+        <v>273.2212851131571</v>
       </c>
       <c r="M21" t="n">
         <v>318.8363527115864</v>
       </c>
       <c r="N21" t="n">
-        <v>327.2750022406849</v>
+        <v>327.2750022406848</v>
       </c>
       <c r="O21" t="n">
-        <v>299.3926886886867</v>
+        <v>299.3926886886866</v>
       </c>
       <c r="P21" t="n">
-        <v>240.2890275983565</v>
+        <v>240.2890275983564</v>
       </c>
       <c r="Q21" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R21" t="n">
-        <v>78.12787621577324</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S21" t="n">
-        <v>23.37323790433734</v>
+        <v>23.37323790433733</v>
       </c>
       <c r="T21" t="n">
-        <v>5.072020220563404</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08278596660332005</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,19 +32622,19 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H22" t="n">
-        <v>9.379514301456814</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I22" t="n">
-        <v>31.7253919317169</v>
+        <v>31.72539193171689</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58536065688097</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K22" t="n">
         <v>122.5666592767055</v>
       </c>
       <c r="L22" t="n">
-        <v>156.843125650332</v>
+        <v>156.8431256503319</v>
       </c>
       <c r="M22" t="n">
         <v>165.3690849693453</v>
@@ -32649,19 +32649,19 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.33814543018268</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R22" t="n">
-        <v>47.43463981084392</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S22" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T22" t="n">
-        <v>4.507537547734865</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05754303252427496</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,13 +32704,13 @@
         <v>24.08580736495345</v>
       </c>
       <c r="I23" t="n">
-        <v>90.66940934332905</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J23" t="n">
         <v>199.6096953830069</v>
       </c>
       <c r="K23" t="n">
-        <v>299.1631899035469</v>
+        <v>299.1631899035468</v>
       </c>
       <c r="L23" t="n">
         <v>371.1383908941676</v>
@@ -32722,10 +32722,10 @@
         <v>419.6451431853591</v>
       </c>
       <c r="O23" t="n">
-        <v>396.2590089746665</v>
+        <v>396.2590089746664</v>
       </c>
       <c r="P23" t="n">
-        <v>338.1978963836948</v>
+        <v>338.1978963836947</v>
       </c>
       <c r="Q23" t="n">
         <v>253.9725355871713</v>
@@ -32734,13 +32734,13 @@
         <v>147.7339286599544</v>
       </c>
       <c r="S23" t="n">
-        <v>53.59261177384374</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T23" t="n">
         <v>10.29519069840925</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1881474028264397</v>
+        <v>0.1881474028264396</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I24" t="n">
-        <v>43.32465585573748</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J24" t="n">
         <v>118.8861671068078</v>
       </c>
       <c r="K24" t="n">
-        <v>203.1953954956289</v>
+        <v>203.1953954956288</v>
       </c>
       <c r="L24" t="n">
-        <v>273.2212851131572</v>
+        <v>273.2212851131571</v>
       </c>
       <c r="M24" t="n">
         <v>318.8363527115864</v>
       </c>
       <c r="N24" t="n">
-        <v>327.2750022406849</v>
+        <v>327.2750022406848</v>
       </c>
       <c r="O24" t="n">
-        <v>299.3926886886867</v>
+        <v>299.3926886886866</v>
       </c>
       <c r="P24" t="n">
-        <v>240.2890275983565</v>
+        <v>240.2890275983564</v>
       </c>
       <c r="Q24" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R24" t="n">
-        <v>78.12787621577324</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S24" t="n">
-        <v>23.37323790433734</v>
+        <v>23.37323790433733</v>
       </c>
       <c r="T24" t="n">
-        <v>5.072020220563404</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08278596660332005</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,19 +32859,19 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H25" t="n">
-        <v>9.379514301456814</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I25" t="n">
-        <v>31.7253919317169</v>
+        <v>31.72539193171689</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58536065688097</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K25" t="n">
         <v>122.5666592767055</v>
       </c>
       <c r="L25" t="n">
-        <v>156.843125650332</v>
+        <v>156.8431256503319</v>
       </c>
       <c r="M25" t="n">
         <v>165.3690849693453</v>
@@ -32886,19 +32886,19 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q25" t="n">
-        <v>88.33814543018268</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R25" t="n">
-        <v>47.43463981084392</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S25" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T25" t="n">
-        <v>4.507537547734865</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05754303252427496</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>65.35395652126988</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L12" t="n">
-        <v>505.5072506367422</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M12" t="n">
         <v>642.4073825395681</v>
@@ -35501,13 +35501,13 @@
         <v>675.2756645009051</v>
       </c>
       <c r="O12" t="n">
-        <v>156.7964442442423</v>
+        <v>550.6587635209718</v>
       </c>
       <c r="P12" t="n">
-        <v>424.7773888239634</v>
+        <v>257.3658050200573</v>
       </c>
       <c r="Q12" t="n">
-        <v>140.7207045641233</v>
+        <v>20.6450773821802</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.180450788734717</v>
+        <v>6.180450788734589</v>
       </c>
       <c r="K13" t="n">
-        <v>125.2514376993492</v>
+        <v>125.251437699349</v>
       </c>
       <c r="L13" t="n">
-        <v>209.3874211591746</v>
+        <v>209.3874211591745</v>
       </c>
       <c r="M13" t="n">
-        <v>229.9072321797124</v>
+        <v>229.9072321797123</v>
       </c>
       <c r="N13" t="n">
-        <v>230.5234203746084</v>
+        <v>230.5234203746083</v>
       </c>
       <c r="O13" t="n">
-        <v>198.6525764438039</v>
+        <v>198.6525764438038</v>
       </c>
       <c r="P13" t="n">
-        <v>149.8249136305788</v>
+        <v>149.8249136305787</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.13037242701482</v>
+        <v>27.13037242701469</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283944</v>
       </c>
       <c r="K14" t="n">
-        <v>403.218751429731</v>
+        <v>403.2187514297311</v>
       </c>
       <c r="L14" t="n">
         <v>553.0331904746308</v>
       </c>
       <c r="M14" t="n">
-        <v>632.130270847411</v>
+        <v>632.1302708474111</v>
       </c>
       <c r="N14" t="n">
         <v>627.5790040007523</v>
@@ -35662,7 +35662,7 @@
         <v>546.9609788157251</v>
       </c>
       <c r="P14" t="n">
-        <v>428.7636087999078</v>
+        <v>428.7636087999079</v>
       </c>
       <c r="Q14" t="n">
         <v>243.9818363726265</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K15" t="n">
-        <v>65.35395652126985</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L15" t="n">
-        <v>505.5072506367421</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M15" t="n">
-        <v>176.702318789568</v>
+        <v>642.4073825395681</v>
       </c>
       <c r="N15" t="n">
-        <v>675.2756645009051</v>
+        <v>202.6691911538704</v>
       </c>
       <c r="O15" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442423</v>
       </c>
       <c r="P15" t="n">
-        <v>424.7773888239633</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q15" t="n">
-        <v>212.563449037394</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.180450788734703</v>
+        <v>6.180450788734589</v>
       </c>
       <c r="K16" t="n">
-        <v>125.2514376993491</v>
+        <v>125.251437699349</v>
       </c>
       <c r="L16" t="n">
-        <v>209.3874211591746</v>
+        <v>209.3874211591745</v>
       </c>
       <c r="M16" t="n">
-        <v>229.9072321797124</v>
+        <v>229.9072321797123</v>
       </c>
       <c r="N16" t="n">
-        <v>230.5234203746084</v>
+        <v>230.5234203746083</v>
       </c>
       <c r="O16" t="n">
-        <v>198.6525764438039</v>
+        <v>198.6525764438038</v>
       </c>
       <c r="P16" t="n">
-        <v>149.8249136305788</v>
+        <v>149.8249136305787</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.13037242701479</v>
+        <v>27.13037242701469</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>187.6604060283944</v>
+        <v>187.6604060283943</v>
       </c>
       <c r="K17" t="n">
-        <v>403.2187514297311</v>
+        <v>403.218751429731</v>
       </c>
       <c r="L17" t="n">
         <v>553.0331904746308</v>
       </c>
       <c r="M17" t="n">
-        <v>632.1302708474111</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N17" t="n">
         <v>627.5790040007523</v>
@@ -35899,7 +35899,7 @@
         <v>546.9609788157251</v>
       </c>
       <c r="P17" t="n">
-        <v>428.7636087999079</v>
+        <v>428.7636087999078</v>
       </c>
       <c r="Q17" t="n">
         <v>243.9818363726265</v>
@@ -35963,22 +35963,22 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K18" t="n">
-        <v>329.8191935338485</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L18" t="n">
-        <v>505.5072506367422</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M18" t="n">
-        <v>255.2809642593575</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N18" t="n">
-        <v>195.9332901573516</v>
+        <v>202.6691911538707</v>
       </c>
       <c r="O18" t="n">
-        <v>550.6587635209718</v>
+        <v>156.7964442442422</v>
       </c>
       <c r="P18" t="n">
-        <v>424.7773888239634</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q18" t="n">
         <v>230.7223651180293</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.9439559331129</v>
+        <v>63.94395593311296</v>
       </c>
       <c r="K19" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L19" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M19" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N19" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O19" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P19" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.89387757139301</v>
+        <v>84.89387757139305</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283944</v>
       </c>
       <c r="K20" t="n">
-        <v>403.2187514297311</v>
+        <v>403.218751429731</v>
       </c>
       <c r="L20" t="n">
         <v>553.0331904746308</v>
       </c>
       <c r="M20" t="n">
-        <v>632.1302708474111</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N20" t="n">
         <v>627.5790040007523</v>
@@ -36136,7 +36136,7 @@
         <v>546.9609788157251</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7636087999079</v>
+        <v>428.7636087999078</v>
       </c>
       <c r="Q20" t="n">
         <v>243.9818363726265</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>65.35395652126988</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L21" t="n">
-        <v>415.505590082836</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M21" t="n">
-        <v>642.4073825395681</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N21" t="n">
         <v>675.2756645009051</v>
       </c>
       <c r="O21" t="n">
-        <v>156.7964442442423</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P21" t="n">
-        <v>424.7773888239634</v>
+        <v>150.990696729177</v>
       </c>
       <c r="Q21" t="n">
-        <v>230.7223651180293</v>
+        <v>20.64507738218018</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.9439559331129</v>
+        <v>63.94395593311289</v>
       </c>
       <c r="K22" t="n">
         <v>183.0149428437273</v>
@@ -36288,7 +36288,7 @@
         <v>287.6707373240906</v>
       </c>
       <c r="N22" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O22" t="n">
         <v>256.4160815881821</v>
@@ -36297,7 +36297,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.89387757139301</v>
+        <v>84.89387757139298</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>187.6604060283944</v>
+        <v>187.6604060283943</v>
       </c>
       <c r="K23" t="n">
-        <v>403.2187514297311</v>
+        <v>403.218751429731</v>
       </c>
       <c r="L23" t="n">
         <v>553.0331904746308</v>
       </c>
       <c r="M23" t="n">
-        <v>632.1302708474111</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N23" t="n">
         <v>627.5790040007523</v>
@@ -36373,7 +36373,7 @@
         <v>546.9609788157251</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7636087999079</v>
+        <v>428.7636087999078</v>
       </c>
       <c r="Q23" t="n">
         <v>243.9818363726265</v>
@@ -36437,22 +36437,22 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K24" t="n">
-        <v>329.8191935338485</v>
+        <v>228.0530654902732</v>
       </c>
       <c r="L24" t="n">
-        <v>505.5072506367422</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M24" t="n">
-        <v>176.7023187895681</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N24" t="n">
-        <v>274.511935627141</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O24" t="n">
-        <v>550.6587635209718</v>
+        <v>156.7964442442422</v>
       </c>
       <c r="P24" t="n">
-        <v>424.7773888239634</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q24" t="n">
         <v>230.7223651180293</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311296</v>
       </c>
       <c r="K25" t="n">
         <v>183.0149428437274</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K27" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L27" t="n">
         <v>505.5072506367421</v>
       </c>
       <c r="M27" t="n">
-        <v>373.4205400399076</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N27" t="n">
         <v>195.9332901573515</v>
@@ -36689,7 +36689,7 @@
         <v>550.6587635209717</v>
       </c>
       <c r="P27" t="n">
-        <v>424.7773888239633</v>
+        <v>302.1162075563318</v>
       </c>
       <c r="Q27" t="n">
         <v>230.7223651180293</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.94395593311297</v>
+        <v>63.94395593311287</v>
       </c>
       <c r="K28" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L28" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M28" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N28" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O28" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P28" t="n">
-        <v>207.5884187749571</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.89387757139306</v>
+        <v>84.89387757139296</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K30" t="n">
-        <v>65.35395652126985</v>
+        <v>261.1555438935752</v>
       </c>
       <c r="L30" t="n">
-        <v>231.7205585419558</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M30" t="n">
         <v>642.4073825395679</v>
       </c>
       <c r="N30" t="n">
-        <v>675.2756645009051</v>
+        <v>195.9332901573515</v>
       </c>
       <c r="O30" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P30" t="n">
-        <v>424.7773888239633</v>
+        <v>106.3146201840262</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.64507738218018</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.94395593311297</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K31" t="n">
         <v>183.0149428437274</v>
       </c>
       <c r="L31" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M31" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N31" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O31" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P31" t="n">
-        <v>207.5884187749571</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.89387757139306</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K33" t="n">
         <v>65.35395652126985</v>
       </c>
       <c r="L33" t="n">
-        <v>231.7205585419558</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M33" t="n">
         <v>642.4073825395679</v>
       </c>
       <c r="N33" t="n">
-        <v>675.2756645009051</v>
+        <v>195.9332901573515</v>
       </c>
       <c r="O33" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P33" t="n">
-        <v>424.7773888239633</v>
+        <v>302.1162075563318</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.64507738218018</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K36" t="n">
-        <v>65.35395652126985</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L36" t="n">
         <v>505.5072506367421</v>
@@ -37394,16 +37394,16 @@
         <v>642.4073825395679</v>
       </c>
       <c r="N36" t="n">
-        <v>675.2756645009051</v>
+        <v>202.6691911538707</v>
       </c>
       <c r="O36" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442422</v>
       </c>
       <c r="P36" t="n">
-        <v>150.990696729177</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.64507738218018</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>187.6604060283944</v>
+        <v>187.6604060283943</v>
       </c>
       <c r="K38" t="n">
         <v>403.218751429731</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K39" t="n">
-        <v>65.35395652126985</v>
+        <v>261.1555438935752</v>
       </c>
       <c r="L39" t="n">
-        <v>340.106039446044</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M39" t="n">
         <v>642.4073825395679</v>
       </c>
       <c r="N39" t="n">
-        <v>675.2756645009051</v>
+        <v>195.9332901573515</v>
       </c>
       <c r="O39" t="n">
         <v>550.6587635209717</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>63.94395593311299</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K40" t="n">
         <v>183.0149428437274</v>
       </c>
       <c r="L40" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M40" t="n">
-        <v>287.6707373240907</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N40" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O40" t="n">
-        <v>256.4160815881822</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P40" t="n">
-        <v>207.5884187749571</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.89387757139308</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K42" t="n">
-        <v>65.35395652126985</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L42" t="n">
-        <v>231.7205585419558</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M42" t="n">
         <v>642.4073825395679</v>
@@ -37874,7 +37874,7 @@
         <v>550.6587635209717</v>
       </c>
       <c r="P42" t="n">
-        <v>424.7773888239633</v>
+        <v>139.2262292395075</v>
       </c>
       <c r="Q42" t="n">
         <v>20.64507738218018</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>63.94395593311299</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K43" t="n">
         <v>183.0149428437274</v>
       </c>
       <c r="L43" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M43" t="n">
-        <v>287.6707373240907</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N43" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O43" t="n">
-        <v>256.4160815881822</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P43" t="n">
-        <v>207.5884187749571</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.89387757139308</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283944</v>
       </c>
       <c r="K44" t="n">
         <v>403.218751429731</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K45" t="n">
-        <v>65.35395652126985</v>
+        <v>261.1555438935752</v>
       </c>
       <c r="L45" t="n">
-        <v>231.7205585419558</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M45" t="n">
         <v>642.4073825395679</v>
       </c>
       <c r="N45" t="n">
-        <v>675.2756645009051</v>
+        <v>195.9332901573515</v>
       </c>
       <c r="O45" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P45" t="n">
-        <v>424.7773888239633</v>
+        <v>106.3146201840262</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.64507738218018</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>63.94395593311299</v>
+        <v>63.94395593311286</v>
       </c>
       <c r="K46" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L46" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M46" t="n">
-        <v>287.6707373240907</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N46" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O46" t="n">
-        <v>256.4160815881822</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P46" t="n">
-        <v>207.5884187749571</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.89387757139308</v>
+        <v>84.89387757139295</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
